--- a/WebAutoTest/actionConfig/action.xlsx
+++ b/WebAutoTest/actionConfig/action.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3012" windowHeight="636"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3015" windowHeight="1155"/>
   </bookViews>
   <sheets>
-    <sheet name="动作" sheetId="1" r:id="rId1"/>
-    <sheet name="截图" sheetId="2" r:id="rId2"/>
+    <sheet name="action" sheetId="1" r:id="rId1"/>
+    <sheet name="screenshot" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>点击</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>输入值（可选）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,25 +46,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.user-info li:nth-of-type(1) a</t>
+    <t>#txtUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入内容</t>
+  </si>
+  <si>
+    <t>newad</t>
+  </si>
+  <si>
+    <t>#txtPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kanrisya</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -76,7 +87,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -85,7 +96,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -94,7 +105,7 @@
       <u/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -144,8 +155,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -203,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -238,7 +249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -415,7 +426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -423,55 +434,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4">
       <formula1>"点击,获得焦点,焦点移开,输入内容,JS脚本,截图,切换窗口"</formula1>
     </dataValidation>
   </dataValidations>
@@ -489,7 +514,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebAutoTest/actionConfig/action.xlsx
+++ b/WebAutoTest/actionConfig/action.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3015" windowHeight="1155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3015" windowHeight="1230"/>
   </bookViews>
   <sheets>
     <sheet name="action" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>输入值（可选）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>起始URL：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CSS选择器（必填）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>动作（必填）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://localhost:8080/peropero/home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#txtUser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,6 +49,121 @@
   </si>
   <si>
     <t>kanrisya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.0.235:86/FRMF0301.aspx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#btnLogin</t>
+  </si>
+  <si>
+    <t>#btnEx00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+  </si>
+  <si>
+    <t>切换窗口</t>
+  </si>
+  <si>
+    <r>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS选择器（可选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#btnCommit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,7 +210,16 @@
       <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="3"/>
-      <charset val="134"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -434,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -449,59 +561,119 @@
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="36" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B10">
       <formula1>"点击,获得焦点,焦点移开,输入内容,JS脚本,截图,切换窗口"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
